--- a/data/trans_orig/IP13_R1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP13_R1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0493756-6715-4C84-980D-1F53DEF909A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D9F2FA-6942-45B8-8FFD-1F0C4DE1B1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2919598A-2D98-414E-9E36-4DE490A7B3A3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA672309-7487-40C7-BDA1-6755AAA92CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="102">
   <si>
     <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -83,157 +83,163 @@
     <t>4,3%</t>
   </si>
   <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>98,63%</t>
   </si>
   <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -242,109 +248,97 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>0,7%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>99,3%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>98,41%</t>
   </si>
   <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
     <t>97,31%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -759,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9221716F-5AD8-4102-B319-E3A1A2029188}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEA16B1-98D7-4F1D-834E-A8DB2017A07F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1208,13 +1202,13 @@
         <v>2418</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -1223,13 +1217,13 @@
         <v>7288</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1244,13 +1238,13 @@
         <v>197608</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -1259,13 +1253,13 @@
         <v>173695</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>466</v>
@@ -1274,13 +1268,13 @@
         <v>371303</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1336,7 +1330,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1348,13 +1342,13 @@
         <v>3373</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1363,13 +1357,13 @@
         <v>3893</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -1378,13 +1372,13 @@
         <v>7266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1399,13 +1393,13 @@
         <v>286051</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>337</v>
@@ -1414,13 +1408,13 @@
         <v>256740</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>675</v>
@@ -1429,10 +1423,10 @@
         <v>542791</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>84</v>
@@ -1521,10 +1515,10 @@
         <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -1533,13 +1527,13 @@
         <v>22427</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,13 +1548,13 @@
         <v>713538</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>926</v>
@@ -1569,13 +1563,13 @@
         <v>641945</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>1886</v>
@@ -1584,13 +1578,13 @@
         <v>1355482</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,7 +1640,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP13_R1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP13_R1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D9F2FA-6942-45B8-8FFD-1F0C4DE1B1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF27A4F9-A1F8-4797-ABBD-C1D94F4F04AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA672309-7487-40C7-BDA1-6755AAA92CDB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{566C1555-C890-4F92-8765-61103F5038D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,6 +71,15 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -80,27 +89,27 @@
     <t>1,64%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -110,235 +119,226 @@
     <t>100%</t>
   </si>
   <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>8-11</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEA16B1-98D7-4F1D-834E-A8DB2017A07F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8FA741-C881-47CA-9F06-0E252B75F240}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -871,10 +871,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2441</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -886,10 +886,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>2465</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -904,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>2465</v>
+        <v>2441</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -922,10 +922,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D5" s="7">
-        <v>58503</v>
+        <v>55070</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -937,10 +937,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I5" s="7">
-        <v>54904</v>
+        <v>61444</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -955,7 +955,7 @@
         <v>221</v>
       </c>
       <c r="N5" s="7">
-        <v>113406</v>
+        <v>116514</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -973,49 +973,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1026,10 +1026,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>3250</v>
+        <v>2064</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>31</v>
@@ -1041,10 +1041,10 @@
         <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>2159</v>
+        <v>3355</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -1059,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>5409</v>
+        <v>5419</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>37</v>
@@ -1077,10 +1077,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D8" s="7">
-        <v>171375</v>
+        <v>157235</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1092,10 +1092,10 @@
         <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="I8" s="7">
-        <v>156606</v>
+        <v>178475</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -1110,7 +1110,7 @@
         <v>524</v>
       </c>
       <c r="N8" s="7">
-        <v>327980</v>
+        <v>335711</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>46</v>
@@ -1128,49 +1128,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174625</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181830</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333389</v>
+        <v>341130</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1181,10 +1181,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>4870</v>
+        <v>2346</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -1196,10 +1196,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>2418</v>
+        <v>4964</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -1214,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>7288</v>
+        <v>7310</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1232,10 +1232,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>197608</v>
+        <v>170726</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -1247,10 +1247,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="I11" s="7">
-        <v>173695</v>
+        <v>207526</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -1265,7 +1265,7 @@
         <v>466</v>
       </c>
       <c r="N11" s="7">
-        <v>371303</v>
+        <v>378253</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>65</v>
@@ -1283,49 +1283,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1336,49 +1336,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3729</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
-        <v>3373</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>3544</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3893</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>7266</v>
+        <v>7274</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1387,46 +1387,46 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>337</v>
+      </c>
+      <c r="D14" s="7">
+        <v>271729</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="7">
         <v>338</v>
       </c>
-      <c r="D14" s="7">
-        <v>286051</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>301939</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="7">
-        <v>337</v>
-      </c>
-      <c r="I14" s="7">
-        <v>256740</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>675</v>
       </c>
       <c r="N14" s="7">
-        <v>542791</v>
+        <v>573666</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>84</v>
@@ -1441,46 +1441,46 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1494,28 +1494,28 @@
         <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>11492</v>
+        <v>10579</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>10934</v>
+        <v>11864</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>89</v>
@@ -1524,7 +1524,7 @@
         <v>32</v>
       </c>
       <c r="N16" s="7">
-        <v>22427</v>
+        <v>22443</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>90</v>
@@ -1542,40 +1542,40 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>926</v>
+      </c>
+      <c r="D17" s="7">
+        <v>654761</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="7">
         <v>960</v>
       </c>
-      <c r="D17" s="7">
-        <v>713538</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>749384</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="7">
-        <v>926</v>
-      </c>
-      <c r="I17" s="7">
-        <v>641945</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>1886</v>
       </c>
       <c r="N17" s="7">
-        <v>1355482</v>
+        <v>1404145</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>98</v>
@@ -1593,49 +1593,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>942</v>
+      </c>
+      <c r="D18" s="7">
+        <v>665340</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>976</v>
       </c>
-      <c r="D18" s="7">
-        <v>725030</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
       <c r="I18" s="7">
-        <v>652879</v>
+        <v>761248</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>1377909</v>
+        <v>1426588</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
